--- a/Process_Design/T=820K,P=4atm.xlsx
+++ b/Process_Design/T=820K,P=4atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0523276237</v>
       </c>
@@ -675,112 +759,157 @@
         <v>19.3579</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>64397.65472153794</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>134977.4842963435</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>44992.49476544784</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>1.613042894004045</v>
+      </c>
+      <c r="T2">
         <v>1278.417145642906</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>108532.2889269759</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>153524.7836924237</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0523276237</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>427.5151927935714</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>203233.80161917</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>424758.6453840653</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>141586.2151280218</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>141586.2151280218</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0523276237</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.35418038</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>825237.5138781568</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6700.928612690632</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0523276237</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>535.0854295694376</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>22347047.43814829</v>
+      </c>
+      <c r="AS2">
+        <v>46705329.14572992</v>
+      </c>
+      <c r="AT2">
+        <v>15568443.04857664</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>16571595.75376548</v>
       </c>
-      <c r="AH2">
-        <v>22347047.43814829</v>
-      </c>
-      <c r="AI2">
-        <v>46705329.14572992</v>
-      </c>
-      <c r="AJ2">
-        <v>15568443.04857664</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>32140038.80234212</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0523276237</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>56945.20959397868</v>
+      </c>
+      <c r="BB2">
+        <v>34614.69272823084</v>
+      </c>
+      <c r="BC2">
+        <v>72344.70780200245</v>
+      </c>
+      <c r="BD2">
+        <v>24114.90260066748</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>21783.05087392037</v>
       </c>
-      <c r="AO2">
-        <v>34614.69272823084</v>
-      </c>
-      <c r="AP2">
-        <v>72344.70780200245</v>
-      </c>
-      <c r="AQ2">
-        <v>24114.90260066748</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>45897.95347458786</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0523276237</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.8814222166020135</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>153524.7836924237</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>141586.2151280218</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>32140038.80234212</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>45897.95347458786</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6700.928612690632</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68496705.01832594</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>36008956.3350761</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0829164864</v>
       </c>
@@ -818,112 +947,157 @@
         <v>20.20738098677</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>69776.88706675652</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>146252.3552919217</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>48750.78509730722</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>1.834853012205886</v>
+      </c>
+      <c r="T3">
         <v>1454.212754823775</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>123456.6036647267</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>172207.388762034</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0829164864</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>442.61590270542</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>207871.5193451174</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>434451.4754312954</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>144817.1584770984</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>144817.1584770984</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0829164864</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.43733484</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>854386.5886140022</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>6937.619099545697</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0829164864</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>350.8175574660848</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>15609163.03860498</v>
+      </c>
+      <c r="AS3">
+        <v>32623150.7506844</v>
+      </c>
+      <c r="AT3">
+        <v>10874383.58356147</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>10864819.75472464</v>
       </c>
-      <c r="AH3">
-        <v>15609163.03860498</v>
-      </c>
-      <c r="AI3">
-        <v>32623150.7506844</v>
-      </c>
-      <c r="AJ3">
-        <v>10874383.58356147</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>21739203.33828611</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0829164864</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>37338.49190567055</v>
+      </c>
+      <c r="BB3">
+        <v>26557.73062261421</v>
+      </c>
+      <c r="BC3">
+        <v>55505.65700126369</v>
+      </c>
+      <c r="BD3">
+        <v>18501.8856670879</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>14282.96207066183</v>
       </c>
-      <c r="AO3">
-        <v>26557.73062261421</v>
-      </c>
-      <c r="AP3">
-        <v>55505.65700126369</v>
-      </c>
-      <c r="AQ3">
-        <v>18501.8856670879</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>32784.84773774973</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0829164864</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8491242314726603</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>172207.388762034</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>144817.1584770984</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>21739203.33828611</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>32784.84773774973</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>6937.619099545697</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>67881592.70263629</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>45785642.35027376</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.109253766</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>21.09413971124</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>75605.45499629044</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>158469.0336722248</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>52823.01122407491</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>2.087164332705699</v>
+      </c>
+      <c r="T4">
         <v>1654.182091885902</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>140433.1671757302</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>193256.1783998051</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.109253766</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>459.1958816284703</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>212900.2254578886</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>444961.4712069872</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>148320.4904023291</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>148320.4904023291</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.109253766</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.52863513</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>886391.1134057491</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7197.495840854683</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.109253766</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>277.3294926828832</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>12782245.16372955</v>
+      </c>
+      <c r="AS4">
+        <v>26714892.39219476</v>
+      </c>
+      <c r="AT4">
+        <v>8904964.130731586</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>8588894.388388891</v>
       </c>
-      <c r="AH4">
-        <v>12782245.16372955</v>
-      </c>
-      <c r="AI4">
-        <v>26714892.39219476</v>
-      </c>
-      <c r="AJ4">
-        <v>8904964.130731586</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>17493858.51912048</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.109253766</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>29519.36783117703</v>
+      </c>
+      <c r="BB4">
+        <v>22881.40127123752</v>
+      </c>
+      <c r="BC4">
+        <v>47822.12865688641</v>
+      </c>
+      <c r="BD4">
+        <v>15940.70955229547</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>11291.94002124614</v>
       </c>
-      <c r="AO4">
-        <v>22881.40127123752</v>
-      </c>
-      <c r="AP4">
-        <v>47822.12865688641</v>
-      </c>
-      <c r="AQ4">
-        <v>15940.70955229547</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>27232.64957354161</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.109253766</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8157914250067309</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>193256.1783998051</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>148320.4904023291</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>17493858.51912048</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>27232.64957354161</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7197.495840854683</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>67196678.01270069</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>49326812.67936368</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.131657598</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>22.01981194877</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>81920.89164559756</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>171706.1888891725</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>57235.39629639083</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>2.374171063148601</v>
+      </c>
+      <c r="T5">
         <v>1881.649276098424</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>159744.1833354391</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>216979.57963183</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.131657598</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>477.5064670801488</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>218380.5468004069</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>456415.3428128503</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>152138.4476042834</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>152138.4476042834</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.131657598</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.62946528</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>921736.2479658978</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7484.498333483089</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.131657598</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>240.3781522162328</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>11319343.46544206</v>
+      </c>
+      <c r="AS5">
+        <v>23657427.8427739</v>
+      </c>
+      <c r="AT5">
+        <v>7885809.280924631</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>7444511.37413673</v>
       </c>
-      <c r="AH5">
-        <v>11319343.46544206</v>
-      </c>
-      <c r="AI5">
-        <v>23657427.8427739</v>
-      </c>
-      <c r="AJ5">
-        <v>7885809.280924631</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>15330320.65506136</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.131657598</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>25588.01044663932</v>
+      </c>
+      <c r="BB5">
+        <v>20886.02215367731</v>
+      </c>
+      <c r="BC5">
+        <v>43651.78630118557</v>
+      </c>
+      <c r="BD5">
+        <v>14550.59543372852</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>9788.091698945776</v>
       </c>
-      <c r="AO5">
-        <v>20886.02215367731</v>
-      </c>
-      <c r="AP5">
-        <v>43651.78630118557</v>
-      </c>
-      <c r="AQ5">
-        <v>14550.59543372852</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>24338.6871326743</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.131657598</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.7815452069514204</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>216979.57963183</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>152138.4476042834</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>15330320.65506136</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>24338.6871326743</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7484.498333483089</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>66437038.57853463</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>50705776.71077101</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.15103735</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>22.98610539424</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>88763.86627443714</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>186049.0637112203</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>62016.35457040675</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>2.700644199773588</v>
+      </c>
+      <c r="T6">
         <v>2140.395560530557</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>181710.6647742088</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>243727.0193446155</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.15103735</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>497.6535780943011</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>224326.2346141217</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>468841.8303435143</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>156280.6101145048</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>156280.6101145048</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.15103735</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.74040855</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>960626.4490287038</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>7800.286766113075</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.15103735</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>219.3908919019726</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>10473607.60804114</v>
+      </c>
+      <c r="AS6">
+        <v>21889839.90080598</v>
+      </c>
+      <c r="AT6">
+        <v>7296613.300268658</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>6794535.92220409</v>
       </c>
-      <c r="AH6">
-        <v>10473607.60804114</v>
-      </c>
-      <c r="AI6">
-        <v>21889839.90080598</v>
-      </c>
-      <c r="AJ6">
-        <v>7296613.300268658</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>14091149.22247275</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.15103735</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>23363.86565051235</v>
+      </c>
+      <c r="BB6">
+        <v>19702.71038565879</v>
+      </c>
+      <c r="BC6">
+        <v>41178.66470602687</v>
+      </c>
+      <c r="BD6">
+        <v>13726.22156867562</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>8937.297407548142</v>
       </c>
-      <c r="AO6">
-        <v>19702.71038565879</v>
-      </c>
-      <c r="AP6">
-        <v>41178.66470602687</v>
-      </c>
-      <c r="AQ6">
-        <v>13726.22156867562</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>22663.51897622376</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.15103735</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7466720833216578</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>243727.0193446155</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>156280.6101145048</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>14091149.22247275</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>22663.51897622376</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>7800.286766113075</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>65604312.50474396</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>51082691.84706975</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.167931559</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>23.99480261495</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>96178.44485632784</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>201590.0204188632</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>67196.67347295438</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>3.072010779899357</v>
+      </c>
+      <c r="T7">
         <v>2434.722143609236</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>206697.7653168257</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>273894.4387897801</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.167931559</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>519.8746072536602</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>230787.0973225198</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>482345.0334040665</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>160781.6778013555</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>160781.6778013555</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.167931559</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.86277218</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1003519.958238184</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>8148.582060894049</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.167931559</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>207.1476023713662</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>9974667.295556763</v>
+      </c>
+      <c r="AS7">
+        <v>20847054.64771364</v>
+      </c>
+      <c r="AT7">
+        <v>6949018.215904545</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>6415361.24544121</v>
       </c>
-      <c r="AH7">
-        <v>9974667.295556763</v>
-      </c>
-      <c r="AI7">
-        <v>20847054.64771364</v>
-      </c>
-      <c r="AJ7">
-        <v>6949018.215904545</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>13364379.46134575</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.167931559</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>22073.03867278108</v>
+      </c>
+      <c r="BB7">
+        <v>18995.2577216722</v>
+      </c>
+      <c r="BC7">
+        <v>39700.08863829489</v>
+      </c>
+      <c r="BD7">
+        <v>13233.36287943163</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>8443.521900778871</v>
       </c>
-      <c r="AO7">
-        <v>18995.2577216722</v>
-      </c>
-      <c r="AP7">
-        <v>39700.08863829489</v>
-      </c>
-      <c r="AQ7">
-        <v>13233.36287943163</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>21676.8847802105</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.167931559</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.7113033386789315</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>273894.4387897801</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>160781.6778013555</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>13364379.46134575</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>21676.8847802105</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>8148.582060894049</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>64680860.86061316</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>50851979.81583516</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.18291567</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>25.04776439724</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>104212.3742133836</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>218429.1363512519</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>72809.71211708398</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>3.494444111708873</v>
+      </c>
+      <c r="T8">
         <v>2769.521680734868</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>235120.8510207206</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>307930.5631378045</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.18291567</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>544.3370771888415</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>237788.8998441969</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>496978.8006743714</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>165659.6002247905</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>165659.6002247905</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.18291567</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-2.99747866</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1050740.146462876</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>8532.009989278551</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.18291567</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>200.2089005095217</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>9689946.248663098</v>
+      </c>
+      <c r="AS8">
+        <v>20251987.65970587</v>
+      </c>
+      <c r="AT8">
+        <v>6750662.553235291</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>6200469.648779886</v>
       </c>
-      <c r="AH8">
-        <v>9689946.248663098</v>
-      </c>
-      <c r="AI8">
-        <v>20251987.65970587</v>
-      </c>
-      <c r="AJ8">
-        <v>6750662.553235291</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>12951132.20201518</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.18291567</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>21346.46852346301</v>
+      </c>
+      <c r="BB8">
+        <v>18589.77246372316</v>
+      </c>
+      <c r="BC8">
+        <v>38852.6244491814</v>
+      </c>
+      <c r="BD8">
+        <v>12950.8748163938</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>8165.58957532228</v>
       </c>
-      <c r="AO8">
-        <v>18589.77246372316</v>
-      </c>
-      <c r="AP8">
-        <v>38852.6244491814</v>
-      </c>
-      <c r="AQ8">
-        <v>12950.8748163938</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>21116.46439171608</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.18291567</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6756807772235424</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>307930.5631378045</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>165659.6002247905</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>12951132.20201518</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>21116.46439171608</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>8532.009989278551</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>63666611.97121485</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>50212241.13145608</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.196166729</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>26.14693319154</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>112917.3895777764</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>236674.8485550192</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>78891.61618500641</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>3.974966399021231</v>
+      </c>
+      <c r="T9">
         <v>3150.359619544277</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>267452.4052008943</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>346344.0213859007</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.196166729</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>571.2669670284108</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>245370.7861654139</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>512824.9430857151</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>170941.6476952384</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>170941.6476952384</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.196166729</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.14577238</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1102723.223824409</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>8954.1125774542</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.196166729</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>197.088277956831</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>9561415.034368908</v>
+      </c>
+      <c r="AS9">
+        <v>19983357.42183102</v>
+      </c>
+      <c r="AT9">
+        <v>6661119.140610338</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>6103823.968323054</v>
       </c>
-      <c r="AH9">
-        <v>9561415.034368908</v>
-      </c>
-      <c r="AI9">
-        <v>19983357.42183102</v>
-      </c>
-      <c r="AJ9">
-        <v>6661119.140610338</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>12764943.10893339</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.196166729</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>21026.34401583326</v>
+      </c>
+      <c r="BB9">
+        <v>18409.36834719004</v>
+      </c>
+      <c r="BC9">
+        <v>38475.57984562717</v>
+      </c>
+      <c r="BD9">
+        <v>12825.19328187572</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>8043.133472598148</v>
       </c>
-      <c r="AO9">
-        <v>18409.36834719004</v>
-      </c>
-      <c r="AP9">
-        <v>38475.57984562717</v>
-      </c>
-      <c r="AQ9">
-        <v>12825.19328187572</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>20868.32675447387</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.196166729</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6400012679449473</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>346344.0213859007</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>170941.6476952384</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>12764943.10893339</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>20868.32675447387</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>8954.1125774542</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>62547996.71896157</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>49235945.50161511</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.208044614</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>27.29433675428</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>122349.5482454172</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>256444.6531223944</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>85481.55104079813</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>4.521565503107466</v>
+      </c>
+      <c r="T10">
         <v>3583.566739487822</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>304229.8846544349</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>389711.4356952331</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.208044614</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>600.895275278392</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>253569.2841135534</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>529959.8037973266</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>176653.2679324422</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>176653.2679324422</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.208044614</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.30892537</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1159915.089406683</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>9418.510525982269</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.208044614</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>196.746031623997</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>9547300.202799115</v>
+      </c>
+      <c r="AS10">
+        <v>19953857.42385015</v>
+      </c>
+      <c r="AT10">
+        <v>6651285.80795005</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>6093224.599395186</v>
       </c>
-      <c r="AH10">
-        <v>9547300.202799115</v>
-      </c>
-      <c r="AI10">
-        <v>19953857.42385015</v>
-      </c>
-      <c r="AJ10">
-        <v>6651285.80795005</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>12744510.40734524</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.208044614</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>21002.27463842057</v>
+      </c>
+      <c r="BB10">
+        <v>18395.75995094886</v>
+      </c>
+      <c r="BC10">
+        <v>38447.13829748311</v>
+      </c>
+      <c r="BD10">
+        <v>12815.7127658277</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>8033.926298255957</v>
       </c>
-      <c r="AO10">
-        <v>18395.75995094886</v>
-      </c>
-      <c r="AP10">
-        <v>38447.13829748311</v>
-      </c>
-      <c r="AQ10">
-        <v>12815.7127658277</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>20849.63906408366</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.208044614</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.6044766474492126</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>389711.4356952331</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>176653.2679324422</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>12744510.40734524</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>20849.63906408366</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>9418.510525982269</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>61309843.79154577</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>47968700.5309828</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.218920782</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>28.49209169137</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>132569.5889490874</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>277865.8584372872</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>92621.95281242905</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>5.143327633821227</v>
+      </c>
+      <c r="T11">
         <v>4076.344316185014</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>346064.6476761236</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>438686.6004885526</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.218920782</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>633.4106172138144</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>262405.4807291175</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>548427.4547238556</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>182809.1515746185</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>182809.1515746185</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.218920782</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.48797627</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1222679.829453343</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>9928.160215161144</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.218920782</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>198.4934285769854</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>9619327.429462444</v>
+      </c>
+      <c r="AS11">
+        <v>20104394.32757651</v>
+      </c>
+      <c r="AT11">
+        <v>6701464.775858835</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>6147341.483029236</v>
       </c>
-      <c r="AH11">
-        <v>9619327.429462444</v>
-      </c>
-      <c r="AI11">
-        <v>20104394.32757651</v>
-      </c>
-      <c r="AJ11">
-        <v>6701464.775858835</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>12848806.25888807</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.218920782</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>21201.20536728918</v>
+      </c>
+      <c r="BB11">
+        <v>18508.04542888257</v>
+      </c>
+      <c r="BC11">
+        <v>38681.81494636456</v>
+      </c>
+      <c r="BD11">
+        <v>12893.93831545485</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>8110.022570764703</v>
       </c>
-      <c r="AO11">
-        <v>18508.04542888257</v>
-      </c>
-      <c r="AP11">
-        <v>38681.81494636456</v>
-      </c>
-      <c r="AQ11">
-        <v>12893.93831545485</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>21003.96088621956</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.218920782</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5693582795337734</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>438686.6004885526</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>182809.1515746185</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>12848806.25888807</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>21003.96088621956</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>9928.160215161144</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>59955631.5000828</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>46454397.36803018</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.229002571</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>29.74240759226</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>143643.3248534832</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>301076.4088929007</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>100358.8029643002</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>5.850588497915104</v>
+      </c>
+      <c r="T12">
         <v>4636.883914022616</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>393652.1239508784</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>494010.9269151787</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.229002571</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>669.0669726076031</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>271914.6873379523</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>568301.6965363201</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>189433.89884544</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>189433.89884544</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.229002571</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-3.68432366</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1291507.704053192</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>10487.04255691192</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.229002571</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>201.9919966527859</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>9763252.746232111</v>
+      </c>
+      <c r="AS12">
+        <v>20405198.23962511</v>
+      </c>
+      <c r="AT12">
+        <v>6801732.746541703</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>6255692.136336779</v>
       </c>
-      <c r="AH12">
-        <v>9763252.746232111</v>
-      </c>
-      <c r="AI12">
-        <v>20405198.23962511</v>
-      </c>
-      <c r="AJ12">
-        <v>6801732.746541703</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>13057424.88287848</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.229002571</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>21587.25278283918</v>
+      </c>
+      <c r="BB12">
+        <v>18724.75266681214</v>
+      </c>
+      <c r="BC12">
+        <v>39134.73307363737</v>
+      </c>
+      <c r="BD12">
+        <v>13044.91102454579</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>8257.695931748529</v>
       </c>
-      <c r="AO12">
-        <v>18724.75266681214</v>
-      </c>
-      <c r="AP12">
-        <v>39134.73307363737</v>
-      </c>
-      <c r="AQ12">
-        <v>13044.91102454579</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>21302.60695629432</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.229002571</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.5348384492594883</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>494010.9269151787</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>189433.89884544</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>13057424.88287848</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>21302.60695629432</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>10487.04255691192</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>58474637.83817304</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>44701978.48002073</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.238461004</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>31.04759103276</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>155642.0668361185</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>326225.7720885045</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>108741.9240295015</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>6.655105087330452</v>
+      </c>
+      <c r="T13">
         <v>5274.503536963751</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>447783.3731901518</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>556525.2972196533</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.238461004</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>708.1658128243085</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>282140.3193691479</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>589673.267481519</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>196557.755827173</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>196557.755827173</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.238461004</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-3.89962764</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1366980.646862813</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>11099.88285252604</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.238461004</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>207.0340312854951</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>9970018.685974466</v>
+      </c>
+      <c r="AS13">
+        <v>20837339.05368663</v>
+      </c>
+      <c r="AT13">
+        <v>6945779.684562211</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>6411843.948911783</v>
       </c>
-      <c r="AH13">
-        <v>9970018.685974466</v>
-      </c>
-      <c r="AI13">
-        <v>20837339.05368663</v>
-      </c>
-      <c r="AJ13">
-        <v>6945779.684562211</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>13357623.63347399</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.238461004</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>22138.38610516049</v>
+      </c>
+      <c r="BB13">
+        <v>19031.46325380974</v>
+      </c>
+      <c r="BC13">
+        <v>39775.75820046235</v>
+      </c>
+      <c r="BD13">
+        <v>13258.58606682078</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>8468.519024402616</v>
       </c>
-      <c r="AO13">
-        <v>19031.46325380974</v>
-      </c>
-      <c r="AP13">
-        <v>39775.75820046235</v>
-      </c>
-      <c r="AQ13">
-        <v>13258.58606682078</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>21727.1050912234</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.238461004</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.5010808375440131</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>556525.2972196533</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>196557.755827173</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>13357623.63347399</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>21727.1050912234</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>11099.88285252604</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>56841370.87389261</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>42697837.19942804</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.247452038</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>32.4100497091</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>168643.0815685998</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>353475.8989677852</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>117825.2996559284</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>7.570251041155825</v>
+      </c>
+      <c r="T14">
         <v>5999.802462668051</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>509358.2299035897</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>627183.5295595181</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.247452038</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>750.926036474153</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>293099.8439661703</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>612578.6738892959</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>204192.8912964319</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>204192.8912964319</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.247452038</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-4.13509361</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1449521.200397504</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>11770.11214722773</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.247452038</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>213.4779419060652</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>10233178.52060318</v>
+      </c>
+      <c r="AS14">
+        <v>21387343.10806064</v>
+      </c>
+      <c r="AT14">
+        <v>7129114.369353545</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>6611411.860830839</v>
       </c>
-      <c r="AH14">
-        <v>10233178.52060318</v>
-      </c>
-      <c r="AI14">
-        <v>21387343.10806064</v>
-      </c>
-      <c r="AJ14">
-        <v>7129114.369353545</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>13740526.23018438</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.247452038</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>22839.73943264278</v>
+      </c>
+      <c r="BB14">
+        <v>19417.39126403265</v>
+      </c>
+      <c r="BC14">
+        <v>40582.34774182824</v>
+      </c>
+      <c r="BD14">
+        <v>13527.44924727608</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>8736.805247634911</v>
       </c>
-      <c r="AO14">
-        <v>19417.39126403265</v>
-      </c>
-      <c r="AP14">
-        <v>40582.34774182824</v>
-      </c>
-      <c r="AQ14">
-        <v>13527.44924727608</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>22264.25449491099</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.247452038</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.4682887578199312</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>627183.5295595181</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>204192.8912964319</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>13740526.23018438</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>22264.25449491099</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>11770.11214722773</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>55051968.88769542</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>40446031.87001295</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.256130466</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>33.8322969329</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>182730.0894511489</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>383002.2674896081</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>127667.422496536</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>8.611238971902342</v>
+      </c>
+      <c r="T15">
         <v>6824.837447181202</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>579400.2624429875</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>707067.6849395236</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.256130466</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>797.7080889748383</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>304842.8609793565</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>637121.5794468551</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>212373.8598156184</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>212373.8598156184</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.256130466</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.39270642</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1539825.136609718</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>12503.38010927091</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.256130466</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>221.2204774508943</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>10547803.26783782</v>
+      </c>
+      <c r="AS15">
+        <v>22044908.82978105</v>
+      </c>
+      <c r="AT15">
+        <v>7348302.943260349</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>6851198.186654197</v>
       </c>
-      <c r="AH15">
-        <v>10547803.26783782</v>
-      </c>
-      <c r="AI15">
-        <v>22044908.82978105</v>
-      </c>
-      <c r="AJ15">
-        <v>7348302.943260349</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>14199501.12991455</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.256130466</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>23680.3522584272</v>
+      </c>
+      <c r="BB15">
+        <v>19873.75712267673</v>
+      </c>
+      <c r="BC15">
+        <v>41536.15238639436</v>
+      </c>
+      <c r="BD15">
+        <v>13845.38412879812</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>9058.361917280889</v>
       </c>
-      <c r="AO15">
-        <v>19873.75712267673</v>
-      </c>
-      <c r="AP15">
-        <v>41536.15238639436</v>
-      </c>
-      <c r="AQ15">
-        <v>13845.38412879812</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>22903.74604607901</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.256130466</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.4365727866769188</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>707067.6849395236</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>212373.8598156184</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>14199501.12991455</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>22903.74604607901</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>12503.38010927091</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>53097225.65866172</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>37942875.85783667</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.264600783</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>35.3169566511</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>197993.807668797</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>414995.0208737985</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>138331.6736245995</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>9.795373650963905</v>
+      </c>
+      <c r="T16">
         <v>7763.323387071443</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>659073.808381586</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>797405.4820061855</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.264600783</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>848.8252401335121</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>317401.749883077</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>663369.6572556309</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>221123.2190852103</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>221123.2190852103</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.264600783</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-4.67419114</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1638497.163826039</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>13304.59697026744</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.264600783</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>230.2219840575922</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>10911520.37488748</v>
+      </c>
+      <c r="AS16">
+        <v>22805077.58351483</v>
+      </c>
+      <c r="AT16">
+        <v>7601692.527838276</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>7129974.846263631</v>
       </c>
-      <c r="AH16">
-        <v>10911520.37488748</v>
-      </c>
-      <c r="AI16">
-        <v>22805077.58351483</v>
-      </c>
-      <c r="AJ16">
-        <v>7601692.527838276</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>14731667.37410191</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.264600783</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>24656.10581127729</v>
+      </c>
+      <c r="BB16">
+        <v>20395.44032706316</v>
+      </c>
+      <c r="BC16">
+        <v>42626.470283562</v>
+      </c>
+      <c r="BD16">
+        <v>14208.823427854</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>9431.613494256197</v>
       </c>
-      <c r="AO16">
-        <v>20395.44032706316</v>
-      </c>
-      <c r="AP16">
-        <v>42626.470283562</v>
-      </c>
-      <c r="AQ16">
-        <v>14208.823427854</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>23640.4369221102</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.264600783</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.4060630867621053</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>797405.4820061855</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>221123.2190852103</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>14731667.37410191</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>23640.4369221102</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>13304.59697026744</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>50950516.34202589</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>35163375.23294021</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.272940406</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>36.8667675144</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>214532.526632316</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>449660.1758213343</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>149886.7252737781</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>11.14233908820797</v>
+      </c>
+      <c r="T17">
         <v>8830.860844359226</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>749703.2904325802</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>899590.0157063582</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.272940406</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>904.5958445101726</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>330805.6465492145</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>691383.8012878583</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>230461.2670959528</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>230461.2670959528</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.272940406</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-4.98130084</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1746151.805530201</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>14178.75266090523</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.272940406</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>240.4790294529235</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>11323381.07836035</v>
+      </c>
+      <c r="AS17">
+        <v>23665866.45377314</v>
+      </c>
+      <c r="AT17">
+        <v>7888622.151257712</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>7447635.542157041</v>
       </c>
-      <c r="AH17">
-        <v>11323381.07836035</v>
-      </c>
-      <c r="AI17">
-        <v>23665866.45377314</v>
-      </c>
-      <c r="AJ17">
-        <v>7888622.151257712</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>15336257.69341475</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.272940406</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>25766.7670868431</v>
+      </c>
+      <c r="BB17">
+        <v>20979.3025658359</v>
+      </c>
+      <c r="BC17">
+        <v>43846.74236259702</v>
+      </c>
+      <c r="BD17">
+        <v>14615.58078753234</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>9856.470848225823</v>
       </c>
-      <c r="AO17">
-        <v>20979.3025658359</v>
-      </c>
-      <c r="AP17">
-        <v>43846.74236259702</v>
-      </c>
-      <c r="AQ17">
-        <v>14615.58078753234</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>24472.05163575816</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.272940406</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.3768628907129339</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>899590.0157063582</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>230461.2670959528</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>15336257.69341475</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>24472.05163575816</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>14178.75266090523</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>48611291.1451304</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>32106331.36461667</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.281238806</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>38.4845885862</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>232452.7494931958</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>487220.9629377384</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>162406.9876459128</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>12.67452623511754</v>
+      </c>
+      <c r="T18">
         <v>10045.1957676424</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>852795.2656904749</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1015202.253336388</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.281238806</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>965.3723898843106</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>345087.3975848463</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>721232.6609523287</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>240410.8869841096</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>240410.8869841096</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.281238806</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-5.31597655</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1863469.472953717</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>15131.37212038418</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.281238806</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>251.9847610329129</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>11782260.76048079</v>
+      </c>
+      <c r="AS18">
+        <v>24624924.98940485</v>
+      </c>
+      <c r="AT18">
+        <v>8208308.329801615</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>7803968.049189312</v>
       </c>
-      <c r="AH18">
-        <v>11782260.76048079</v>
-      </c>
-      <c r="AI18">
-        <v>24624924.98940485</v>
-      </c>
-      <c r="AJ18">
-        <v>8208308.329801615</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>16012276.37899093</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.281238806</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>27011.68961514462</v>
+      </c>
+      <c r="BB18">
+        <v>21621.90494777137</v>
+      </c>
+      <c r="BC18">
+        <v>45189.78134084216</v>
+      </c>
+      <c r="BD18">
+        <v>15063.26044694739</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>10332.68668730052</v>
       </c>
-      <c r="AO18">
-        <v>21621.90494777137</v>
-      </c>
-      <c r="AP18">
-        <v>45189.78134084216</v>
-      </c>
-      <c r="AQ18">
-        <v>15063.26044694739</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>25395.94713424791</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.281238806</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.3490471802981058</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>1015202.253336388</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>240410.8869841096</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>16012276.37899093</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>25395.94713424791</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>15131.37212038418</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>46061217.69242103</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>28752800.85385497</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.289570492</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>40.1734042641</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>251869.8743013191</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>527919.2565355649</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>175973.085511855</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>14.41740490145789</v>
+      </c>
+      <c r="T19">
         <v>11426.51425465045</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>970063.4497437621</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1146036.535255617</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.289570492</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>1031.503692117466</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>360274.4326485419</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>752973.5642354526</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>250991.1880784842</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>250991.1880784842</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.289570492</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-5.68013908</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>1991123.489382475</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>16167.9227337857</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.289570492</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>264.7476081521689</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>12287618.88828986</v>
+      </c>
+      <c r="AS19">
+        <v>25681123.47652581</v>
+      </c>
+      <c r="AT19">
+        <v>8560374.492175268</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>8199233.424472671</v>
       </c>
-      <c r="AH19">
-        <v>12287618.88828986</v>
-      </c>
-      <c r="AI19">
-        <v>25681123.47652581</v>
-      </c>
-      <c r="AJ19">
-        <v>8560374.492175268</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>16759607.91664794</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.289570492</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>28391.83978667489</v>
+      </c>
+      <c r="BB19">
+        <v>22320.61445551558</v>
+      </c>
+      <c r="BC19">
+        <v>46650.08421202756</v>
+      </c>
+      <c r="BD19">
+        <v>15550.02807067585</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>10860.63068143893</v>
       </c>
-      <c r="AO19">
-        <v>22320.61445551558</v>
-      </c>
-      <c r="AP19">
-        <v>46650.08421202756</v>
-      </c>
-      <c r="AQ19">
-        <v>15550.02807067585</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>26410.65875211478</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.289570492</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.3226710223111948</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>1146036.535255617</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>250991.1880784842</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>16759607.91664794</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>26410.65875211478</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>16167.9227337857</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>43278710.11246078</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>25079495.89099283</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.297950347</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>41.9363301857</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>272908.9417147809</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>572017.1418341807</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>190672.3806113935</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>16.39994755798126</v>
+      </c>
+      <c r="T20">
         <v>12997.77843707805</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1103457.231897772</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>1294129.612509166</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.297950347</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>1103.444778478314</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>376413.6153899709</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>786704.4561650391</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>262234.8187216797</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>262234.8187216797</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.297950347</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-6.07629411</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>2129992.199208154</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>17295.53665757021</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.297950347</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>278.8495461477751</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>12841771.70977201</v>
+      </c>
+      <c r="AS20">
+        <v>26839302.87342351</v>
+      </c>
+      <c r="AT20">
+        <v>8946434.291141169</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>8635970.444196597</v>
       </c>
-      <c r="AH20">
-        <v>12841771.70977201</v>
-      </c>
-      <c r="AI20">
-        <v>26839302.87342351</v>
-      </c>
-      <c r="AJ20">
-        <v>8946434.291141169</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>17582404.73533776</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.297950347</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>29916.05008108655</v>
+      </c>
+      <c r="BB20">
+        <v>23076.64925953194</v>
+      </c>
+      <c r="BC20">
+        <v>48230.19695242174</v>
+      </c>
+      <c r="BD20">
+        <v>16076.73231747391</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>11443.681488038</v>
       </c>
-      <c r="AO20">
-        <v>23076.64925953194</v>
-      </c>
-      <c r="AP20">
-        <v>48230.19695242174</v>
-      </c>
-      <c r="AQ20">
-        <v>16076.73231747391</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>27520.41380551192</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.297950347</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.2977498362391852</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>1294129.612509166</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>262234.8187216797</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>17582404.73533776</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>27520.41380551192</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>17295.53665757021</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>40240540.61689749</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>21056955.49986579</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.306447585</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>43.7766184782</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>295705.4345319571</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>619798.590778982</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>206599.5302596607</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>18.6551104486968</v>
+      </c>
+      <c r="T21">
         <v>14785.10778611465</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>1255194.046425359</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>1461793.576685019</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.306447585</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>1181.532568322706</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>393520.2946315939</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>822457.4157800312</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>274152.471926677</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>274152.471926677</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.306447585</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-6.50629694</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2280725.961754323</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>18519.49480944511</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.306447585</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>294.3079970735268</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>13444425.47448184</v>
+      </c>
+      <c r="AS21">
+        <v>28098849.24166705</v>
+      </c>
+      <c r="AT21">
+        <v>9366283.080555683</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>9114718.669367127</v>
       </c>
-      <c r="AH21">
-        <v>13444425.47448184</v>
-      </c>
-      <c r="AI21">
-        <v>28098849.24166705</v>
-      </c>
-      <c r="AJ21">
-        <v>9366283.080555683</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>18481001.74992281</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.306447585</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>31586.27088002939</v>
+      </c>
+      <c r="BB21">
+        <v>23887.62396803259</v>
+      </c>
+      <c r="BC21">
+        <v>49925.13409318811</v>
+      </c>
+      <c r="BD21">
+        <v>16641.71136439604</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>12082.58517973499</v>
       </c>
-      <c r="AO21">
-        <v>23887.62396803259</v>
-      </c>
-      <c r="AP21">
-        <v>49925.13409318811</v>
-      </c>
-      <c r="AQ21">
-        <v>16641.71136439604</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>28724.29654413103</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.306447585</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.274306762738964</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>1461793.576685019</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>274152.471926677</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>18481001.74992281</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>28724.29654413103</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>18519.49480944511</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>36942822.36736234</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>16678630.77747425</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.315096444</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>45.6976639923</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>320406.1527108974</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>671571.296082041</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>223857.0986940137</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>21.22038164455994</v>
+      </c>
+      <c r="T22">
         <v>16818.21347239598</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>1427796.247916951</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>1651653.346610964</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.315096444</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>1266.153025263723</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>411617.1483360527</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>860279.8400223501</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>286759.9466741167</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>286759.9466741167</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.315096444</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-6.97227294</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>2444069.807040676</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>19845.84683317029</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.315096444</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>311.181101775003</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>14096838.57066024</v>
+      </c>
+      <c r="AS22">
+        <v>29462392.6126799</v>
+      </c>
+      <c r="AT22">
+        <v>9820797.537559967</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>9637278.721971843</v>
       </c>
-      <c r="AH22">
-        <v>14096838.57066024</v>
-      </c>
-      <c r="AI22">
-        <v>29462392.6126799</v>
-      </c>
-      <c r="AJ22">
-        <v>9820797.537559967</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>19458076.25953181</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.315096444</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>33408.77361640058</v>
+      </c>
+      <c r="BB22">
+        <v>24753.2057233308</v>
+      </c>
+      <c r="BC22">
+        <v>51734.19996176138</v>
+      </c>
+      <c r="BD22">
+        <v>17244.73332058713</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>12779.74074571311</v>
       </c>
-      <c r="AO22">
-        <v>24753.2057233308</v>
-      </c>
-      <c r="AP22">
-        <v>51734.19996176138</v>
-      </c>
-      <c r="AQ22">
-        <v>17244.73332058713</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>30024.47406630024</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.315096444</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.2523354792832673</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>1651653.346610964</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>286759.9466741167</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>19458076.25953181</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>30024.47406630024</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>19845.84683317029</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>33365922.57966774</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>11919562.70595138</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.323880778</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>47.7030105361</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>347170.1583278283</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>727668.6518551282</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>242556.2172850427</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>24.13840417512426</v>
+      </c>
+      <c r="T23">
         <v>19130.89222899474</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>1624133.038190699</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>1866689.255475742</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.323880778</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>1357.894244552142</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>430764.8890481427</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>900298.6181106182</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>300099.5393702061</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>300099.5393702061</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.323880778</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-7.47746055</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>2621158.942121502</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>21283.81061002659</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.323880778</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>329.6062521810128</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>14803234.5154366</v>
+      </c>
+      <c r="AS23">
+        <v>30938760.13726249</v>
+      </c>
+      <c r="AT23">
+        <v>10312920.04575416</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>10207905.63004597</v>
       </c>
-      <c r="AH23">
-        <v>14803234.5154366</v>
-      </c>
-      <c r="AI23">
-        <v>30938760.13726249</v>
-      </c>
-      <c r="AJ23">
-        <v>10312920.04575416</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>20520825.67580013</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.323880778</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>35398.29999841077</v>
+      </c>
+      <c r="BB23">
+        <v>25676.81968470251</v>
+      </c>
+      <c r="BC23">
+        <v>53664.55314102825</v>
+      </c>
+      <c r="BD23">
+        <v>17888.18438034275</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>13540.78727979975</v>
       </c>
-      <c r="AO23">
-        <v>25676.81968470251</v>
-      </c>
-      <c r="AP23">
-        <v>53664.55314102825</v>
-      </c>
-      <c r="AQ23">
-        <v>17888.18438034275</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>31428.9716601425</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.323880778</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.2317941595039303</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>1866689.255475742</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>300099.5393702061</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>20520825.67580013</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>31428.9716601425</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>21283.81061002659</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>29477617.69253347</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>6737290.439617225</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.332827149</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>49.7963574371</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>376169.8001653203</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>788451.9011465113</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>262817.3003821704</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>27.45768491838874</v>
+      </c>
+      <c r="T24">
         <v>21761.588182069</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>1847468.163373566</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>2110285.463755737</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.332827149</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>1457.184681991027</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>450984.8156566697</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>942558.2647224397</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>314186.0882408132</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>314186.0882408132</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.332827149</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-8.024219130000001</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>2812820.420181544</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>22840.10181187414</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.332827149</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>349.6633186784864</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>15565499.37470083</v>
+      </c>
+      <c r="AS24">
+        <v>32531893.69312472</v>
+      </c>
+      <c r="AT24">
+        <v>10843964.56437491</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>10829072.97947272</v>
       </c>
-      <c r="AH24">
-        <v>15565499.37470083</v>
-      </c>
-      <c r="AI24">
-        <v>32531893.69312472</v>
-      </c>
-      <c r="AJ24">
-        <v>10843964.56437491</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>21673037.54384763</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.332827149</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>37563.44461575605</v>
+      </c>
+      <c r="BB24">
+        <v>26658.66857711899</v>
+      </c>
+      <c r="BC24">
+        <v>55716.61732617869</v>
+      </c>
+      <c r="BD24">
+        <v>18572.2057753929</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>14369.01244018293</v>
       </c>
-      <c r="AO24">
-        <v>26658.66857711899</v>
-      </c>
-      <c r="AP24">
-        <v>55716.61732617869</v>
-      </c>
-      <c r="AQ24">
-        <v>18572.2057753929</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>32941.21821557583</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.332827149</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.2126526357992267</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>2110285.463755737</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>314186.0882408132</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>21673037.54384763</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>32941.21821557583</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>22840.10181187414</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>25259525.89238764</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>1106235.47651601</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.341923099</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>51.9815667604</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>407591.8293434686</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>854312.4743039103</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>284770.8247679701</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>31.23340165030887</v>
+      </c>
+      <c r="T25">
         <v>24754.0324779523</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>2101514.215576158</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>2386285.040344128</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.341923099</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>1564.606084154023</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>472324.7366281957</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>987158.6995529289</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>329052.8998509763</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>329052.8998509763</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.341923099</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-8.61575216</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>3020177.193350307</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>24523.83881000449</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.341923099</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>371.4990970584824</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>16387948.57955175</v>
+      </c>
+      <c r="AS25">
+        <v>34250812.53126317</v>
+      </c>
+      <c r="AT25">
+        <v>11416937.51042105</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>11505327.0359012</v>
       </c>
-      <c r="AH25">
-        <v>16387948.57955175</v>
-      </c>
-      <c r="AI25">
-        <v>34250812.53126317</v>
-      </c>
-      <c r="AJ25">
-        <v>11416937.51042105</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>22922264.54632226</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.341923099</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>39919.97478016842</v>
+      </c>
+      <c r="BB25">
+        <v>27701.91551879727</v>
+      </c>
+      <c r="BC25">
+        <v>57897.00343428629</v>
+      </c>
+      <c r="BD25">
+        <v>19299.0011447621</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>15270.44764120027</v>
       </c>
-      <c r="AO25">
-        <v>27701.91551879727</v>
-      </c>
-      <c r="AP25">
-        <v>57897.00343428629</v>
-      </c>
-      <c r="AQ25">
-        <v>19299.0011447621</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>34569.44878596237</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.341923099</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.194858479535964</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>2386285.040344128</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>329052.8998509763</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>22922264.54632226</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>34569.44878596237</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>24523.83881000449</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>20687829.97461571</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-5008865.799497617</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.351190275</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>54.2626692145</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>441638.5844683052</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>925674.4730455676</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>308558.1576818558</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>35.52831819038959</v>
+      </c>
+      <c r="T26">
         <v>28157.96858179328</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>2390494.207725158</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>2699052.365407014</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.351190275</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>1680.619819723004</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>494803.3076243704</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>1034138.912934934</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>344712.9709783114</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>344712.9709783114</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.351190275</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-9.25460024</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>3244119.846922602</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>26342.25315701152</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.351190275</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>395.2100758611656</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>17272861.93183185</v>
+      </c>
+      <c r="AS26">
+        <v>36100281.43752856</v>
+      </c>
+      <c r="AT26">
+        <v>12033427.14584285</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>12239656.0494203</v>
       </c>
-      <c r="AH26">
-        <v>17272861.93183185</v>
-      </c>
-      <c r="AI26">
-        <v>36100281.43752856</v>
-      </c>
-      <c r="AJ26">
-        <v>12033427.14584285</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>24273083.19526315</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.351190275</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>42478.2182812756</v>
+      </c>
+      <c r="BB26">
+        <v>28806.94537732326</v>
+      </c>
+      <c r="BC26">
+        <v>60206.51583860561</v>
+      </c>
+      <c r="BD26">
+        <v>20068.83861286854</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>16249.04353591775</v>
       </c>
-      <c r="AO26">
-        <v>28806.94537732326</v>
-      </c>
-      <c r="AP26">
-        <v>60206.51583860561</v>
-      </c>
-      <c r="AQ26">
-        <v>20068.83861286854</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>36317.88214878629</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.351190275</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.178351367521587</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>2699052.365407014</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>344712.9709783114</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>24273083.19526315</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>36317.88214878629</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>26342.25315701152</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>15734722.23615158</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-11644786.43080269</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.360685065</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>56.64387301</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>478529.3148037845</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1002997.443828732</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>334332.4812762441</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>40.4138301240622</v>
+      </c>
+      <c r="T27">
         <v>32029.9810648255</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>2719211.934149248</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>3053544.415425492</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.360685065</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>1805.629703425522</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>518425.171862144</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1083508.609191881</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>361169.5363972936</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>361169.5363972936</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.360685065</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-9.94298704</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>3485427.869130544</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>28301.67429734001</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.360685065</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>420.8578374181328</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>18221142.34133569</v>
+      </c>
+      <c r="AS27">
+        <v>38082187.4933916</v>
+      </c>
+      <c r="AT27">
+        <v>12694062.4977972</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>13033967.22483957</v>
       </c>
-      <c r="AH27">
-        <v>18221142.34133569</v>
-      </c>
-      <c r="AI27">
-        <v>38082187.4933916</v>
-      </c>
-      <c r="AJ27">
-        <v>12694062.4977972</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>25728029.72263677</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.360685065</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>45244.79674876248</v>
+      </c>
+      <c r="BB27">
+        <v>29972.40713078359</v>
+      </c>
+      <c r="BC27">
+        <v>62642.33090333769</v>
+      </c>
+      <c r="BD27">
+        <v>20880.77696777923</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>17307.3330730649</v>
       </c>
-      <c r="AO27">
-        <v>29972.40713078359</v>
-      </c>
-      <c r="AP27">
-        <v>62642.33090333769</v>
-      </c>
-      <c r="AQ27">
-        <v>20880.77696777923</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>38188.11004084413</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.360685065</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1631144527672803</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>3053544.415425492</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>361169.5363972936</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>25728029.72263677</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>38188.11004084413</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>28301.67429734001</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>10386609.50482221</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-18822623.95397553</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.370380076</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>59.1295710778</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>518501.5849202067</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1086779.321992753</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>362259.7739975844</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>45.97115086194098</v>
+      </c>
+      <c r="T28">
         <v>36434.43561563133</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>3093131.773618701</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>3455391.547616286</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.370380076</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>1940.184714235067</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>543219.6015462051</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1135328.967231569</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>378442.9890771895</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>378442.9890771895</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.370380076</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-10.6839356</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>3745160.960426632</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>30410.70699866425</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.370380076</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>448.6179295904208</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>19237809.82310409</v>
+      </c>
+      <c r="AS28">
+        <v>40207022.53028756</v>
+      </c>
+      <c r="AT28">
+        <v>13402340.84342919</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>13893697.27941533</v>
       </c>
-      <c r="AH28">
-        <v>19237809.82310409</v>
-      </c>
-      <c r="AI28">
-        <v>40207022.53028756</v>
-      </c>
-      <c r="AJ28">
-        <v>13402340.84342919</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>27296038.12284452</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.370380076</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>48238.55507598609</v>
+      </c>
+      <c r="BB28">
+        <v>31201.8963849095</v>
+      </c>
+      <c r="BC28">
+        <v>65211.96344446085</v>
+      </c>
+      <c r="BD28">
+        <v>21737.32114815362</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>18452.52492346122</v>
       </c>
-      <c r="AO28">
-        <v>31201.8963849095</v>
-      </c>
-      <c r="AP28">
-        <v>65211.96344446085</v>
-      </c>
-      <c r="AQ28">
-        <v>21737.32114815362</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>40189.84607161483</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.370380076</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1490475133311487</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>3455391.547616286</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>378442.9890771895</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>27296038.12284452</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>40189.84607161483</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>30410.70699866425</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>4621089.556172986</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-26579383.65643529</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.380262545</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>61.72434861540001</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>561812.7952291439</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1177559.618800286</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>392519.8729334286</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>52.29266032656475</v>
+      </c>
+      <c r="T29">
         <v>41444.5479418189</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>3518469.434644</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>3910989.307577429</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.380262545</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>2084.951441458565</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>569232.6411053148</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1189696.219910108</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>396565.4066367027</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>396565.4066367027</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.380262545</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-11.4811166</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>4024605.845848242</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>32679.79946828772</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.380262545</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>478.6790130992352</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>20328167.16357347</v>
+      </c>
+      <c r="AS29">
+        <v>42485869.37186855</v>
+      </c>
+      <c r="AT29">
+        <v>14161956.45728952</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>14824689.03568331</v>
       </c>
-      <c r="AH29">
-        <v>20328167.16357347</v>
-      </c>
-      <c r="AI29">
-        <v>42485869.37186855</v>
-      </c>
-      <c r="AJ29">
-        <v>14161956.45728952</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>28986645.49297283</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.380262545</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>51479.67864176192</v>
+      </c>
+      <c r="BB29">
+        <v>32499.04195957128</v>
+      </c>
+      <c r="BC29">
+        <v>67922.99769550397</v>
+      </c>
+      <c r="BD29">
+        <v>22640.99923183466</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>19692.34052911705</v>
       </c>
-      <c r="AO29">
-        <v>32499.04195957128</v>
-      </c>
-      <c r="AP29">
-        <v>67922.99769550397</v>
-      </c>
-      <c r="AQ29">
-        <v>22640.99923183466</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>42333.33976095171</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.380262545</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.1360887434793461</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>3910989.307577429</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>396565.4066367027</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>28986645.49297283</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>42333.33976095171</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>32679.79946828772</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-1598928.100680672</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-34968141.44709687</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.390338566</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>64.4329926018</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>608741.8566349753</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1275922.931506908</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>425307.6438356361</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>59.48344300627418</v>
+      </c>
+      <c r="T30">
         <v>47143.6027546226</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>4002295.442189315</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>4427603.086024951</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.390338566</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>2240.615139077872</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>596507.8377755714</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1246701.380950944</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>415567.126983648</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>415567.126983648</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.390338566</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-12.3383035</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>4325085.279070315</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>35119.69246605095</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.390338566</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>511.2141449422448</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>21496756.00477418</v>
+      </c>
+      <c r="AS30">
+        <v>44928220.04997804</v>
+      </c>
+      <c r="AT30">
+        <v>14976073.34999268</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>15832302.06886132</v>
       </c>
-      <c r="AH30">
-        <v>21496756.00477418</v>
-      </c>
-      <c r="AI30">
-        <v>44928220.04997804</v>
-      </c>
-      <c r="AJ30">
-        <v>14976073.34999268</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>30808375.418854</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.390338566</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>54986.6684841095</v>
+      </c>
+      <c r="BB30">
+        <v>33866.31007937204</v>
+      </c>
+      <c r="BC30">
+        <v>70780.58806588757</v>
+      </c>
+      <c r="BD30">
+        <v>23593.52935529585</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>21033.85702707823</v>
       </c>
-      <c r="AO30">
-        <v>33866.31007937204</v>
-      </c>
-      <c r="AP30">
-        <v>70780.58806588757</v>
-      </c>
-      <c r="AQ30">
-        <v>23593.52935529585</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>44627.38638237408</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.390338566</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.1241688522941388</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>4427603.086024951</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>415567.126983648</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>30808375.418854</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>44627.38638237408</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>35119.69246605095</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-8319493.712576574</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-44050786.4232876</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.400579385</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>67.26050000000001</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>659590.9768715573</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1382502.687522784</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>460834.2291742613</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>67.66303352439441</v>
+      </c>
+      <c r="T31">
         <v>53626.3372197588</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>4552652.586885773</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>5013486.816060034</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.400579385</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA31">
+        <v>2407.671879213065</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>625051.3201254559</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>1306357.259062203</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>435452.4196874009</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>435452.4196874009</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.400579385</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-13.258228</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>4647556.833835208</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>37738.16149074188</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.400579385</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>546.4473424519144</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>22749746.66888426</v>
+      </c>
+      <c r="AS31">
+        <v>47546970.5379681</v>
+      </c>
+      <c r="AT31">
+        <v>15848990.1793227</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>16923474.19573579</v>
       </c>
-      <c r="AH31">
-        <v>22749746.66888426</v>
-      </c>
-      <c r="AI31">
-        <v>47546970.5379681</v>
-      </c>
-      <c r="AJ31">
-        <v>15848990.1793227</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>32772464.37505849</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.400579385</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>58783.55120484163</v>
+      </c>
+      <c r="BB31">
+        <v>35307.83126970276</v>
+      </c>
+      <c r="BC31">
+        <v>73793.36735367875</v>
+      </c>
+      <c r="BD31">
+        <v>24597.78911789292</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>22486.26522888705</v>
       </c>
-      <c r="AO31">
-        <v>35307.83126970276</v>
-      </c>
-      <c r="AP31">
-        <v>73793.36735367875</v>
-      </c>
-      <c r="AQ31">
-        <v>24597.78911789292</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>47084.05434677997</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.400579385</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.1132231508219027</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>5013486.816060034</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>435452.4196874009</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>32772464.37505849</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>47084.05434677997</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>37738.16149074188</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-15548225.51307924</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-53854451.33972269</v>
       </c>
     </row>
